--- a/export/vision_transformer_summary.xlsx
+++ b/export/vision_transformer_summary.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Resolving Ratio Redundancy in Chemical Freeze-out Studies with Principal Component Analysis and Bayesian Calibration</t>
+          <t>NoPo-Avatar: Generalizable and Animatable Avatars from Sparse Inputs without Human Poses</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15707v1</t>
+          <t>http://arxiv.org/abs/2511.16673v1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -496,17 +496,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nachiketa Sarkar</t>
+          <t>Jing Wen; Alexander G. Schwing; Shenlong Wang</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2511.15707v1</t>
+          <t>2511.16673v1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,19 +521,19 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RoMa v2: Harder Better Faster Denser Feature Matching</t>
+          <t>Learning to Think Fast and Slow for Visual Language Models</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15706v1</t>
+          <t>http://arxiv.org/abs/2511.16670v1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -541,17 +541,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Johan Edstedt; David Nordström; Yushan Zhang; Georg Bökman; Jonathan Astermark; Viktor Larsson; Anders Heyden; Fredrik Kahl; Mårten Wadenbäck; Michael Felsberg</t>
+          <t>Chenyu Lin; Cheng Chi; Jinlin Wu; Sharon Li; Kaiyang Zhou</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2511.15706v1</t>
+          <t>2511.16670v1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,19 +566,19 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GeoVista: Web-Augmented Agentic Visual Reasoning for Geolocalization</t>
+          <t>EvoLMM: Self-Evolving Large Multimodal Models with Continuous Rewards</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15705v1</t>
+          <t>http://arxiv.org/abs/2511.16672v1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -586,17 +586,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Yikun Wang; Zuyan Liu; Ziyi Wang; Pengfei Liu; Han Hu; Yongming Rao</t>
+          <t>Omkat Thawakar; Shravan Venkatraman; Ritesh Thawkar; Abdelrahman Shaker; Hisham Cholakkal; Rao Muhammad Anwer; Salman Khan; Fahad Khan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2511.15705v1</t>
+          <t>2511.16672v1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -611,19 +611,19 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>In-N-On: Scaling Egocentric Manipulation with in-the-wild and on-task Data</t>
+          <t>Thinking-while-Generating: Interleaving Textual Reasoning throughout Visual Generation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15704v1</t>
+          <t>http://arxiv.org/abs/2511.16671v1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -631,17 +631,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Xiongyi Cai; Ri-Zhao Qiu; Geng Chen; Lai Wei; Isabella Liu; Tianshu Huang; Xuxin Cheng; Xiaolong Wang</t>
+          <t>Ziyu Guo; Renrui Zhang; Hongyu Li; Manyuan Zhang; Xinyan Chen; Sifan Wang; Yan Feng; Peng Pei; Pheng-Ann Heng</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2511.15704v1</t>
+          <t>2511.16671v1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,19 +656,19 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Think Visually, Reason Textually: Vision-Language Synergy in ARC</t>
+          <t>Dataset Distillation for Pre-Trained Self-Supervised Vision Models</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15703v1</t>
+          <t>http://arxiv.org/abs/2511.16674v1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -676,17 +676,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Beichen Zhang; Yuhang Zang; Xiaoyi Dong; Yuhang Cao; Haodong Duan; Dahua Lin; Jiaqi Wang</t>
+          <t>George Cazenavette; Antonio Torralba; Vincent Sitzmann</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2511.15703v1</t>
+          <t>2511.16674v1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>First Frame Is the Place to Go for Video Content Customization</t>
+          <t>Video-as-Answer: Predict and Generate Next Video Event with Joint-GRPO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15700v1</t>
+          <t>http://arxiv.org/abs/2511.16669v1</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -721,17 +721,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jingxi Chen; Zongxia Li; Zhichao Liu; Guangyao Shi; Xiyang Wu; Fuxiao Liu; Cornelia Fermuller; Brandon Y. Feng; Yiannis Aloimonos</t>
+          <t>Junhao Cheng; Liang Hou; Xin Tao; Jing Liao</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2511.15700v1</t>
+          <t>2511.16669v1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -746,19 +746,19 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hyperspectral Image Classification using Spectral-Spatial Mixer Network</t>
+          <t>TriDiff-4D: Fast 4D Generation through Diffusion-based Triplane Re-posing</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15692v1</t>
+          <t>http://arxiv.org/abs/2511.16662v1</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -766,17 +766,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mohammed Q. Alkhatib</t>
+          <t>Eddie Pokming Sheung; Qihao Liu; Wufei Ma; Prakhar Kaushik; Jianwen Xie; Alan Yuille</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2511.15692v1</t>
+          <t>2511.16662v1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,19 +791,19 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Joint Semantic-Channel Coding and Modulation for Token Communications</t>
+          <t>V-ReasonBench: Toward Unified Reasoning Benchmark Suite for Video Generation Models</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15699v1</t>
+          <t>http://arxiv.org/abs/2511.16668v1</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -811,17 +811,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jingkai Ying; Zhijin Qin; Yulong Feng; Liejun Wang; Xiaoming Tao</t>
+          <t>Yang Luo; Xuanlei Zhao; Baijiong Lin; Lingting Zhu; Liyao Tang; Yuqi Liu; Ying-Cong Chen; Shengju Qian; Xin Wang; Yang You</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2511.15699v1</t>
+          <t>2511.16668v1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -836,19 +836,19 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MoDES: Accelerating Mixture-of-Experts Multimodal Large Language Models via Dynamic Expert Skipping</t>
+          <t>SceneDesigner: Controllable Multi-Object Image Generation with 9-DoF Pose Manipulation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15690v1</t>
+          <t>http://arxiv.org/abs/2511.16666v1</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -856,17 +856,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Yushi Huang; Zining Wang; Zhihang Yuan; Yifu Ding; Ruihao Gong; Jinyang Guo; Xianglong Liu; Jun Zhang</t>
+          <t>Zhenyuan Qin; Xincheng Shuai; Henghui Ding</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2511.15690v1</t>
+          <t>2511.16666v1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,19 +881,19 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Walrus: A Cross-Domain Foundation Model for Continuum Dynamics</t>
+          <t>Cognitive Foundations for Reasoning and Their Manifestation in LLMs</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15684v1</t>
+          <t>http://arxiv.org/abs/2511.16660v1</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -901,17 +901,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Michael McCabe; Payel Mukhopadhyay; Tanya Marwah; Bruno Regaldo-Saint Blancard; Francois Rozet; Cristiana Diaconu; Lucas Meyer; Kaze W. K. Wong; Hadi Sotoudeh; Alberto Bietti; Irina Espejo; Rio Fear; Siavash Golkar; Tom Hehir; Keiya Hirashima; Geraud Krawezik; Francois Lanusse; Rudy Morel; Ruben Ohana; Liam Parker; Mariel Pettee; Jeff Shen; Kyunghyun Cho; Miles Cranmer; Shirley Ho</t>
+          <t>Priyanka Kargupta; Shuyue Stella Li; Haocheng Wang; Jinu Lee; Shan Chen; Orevaoghene Ahia; Dean Light; Thomas L. Griffiths; Max Kleiman-Weiner; Jiawei Han; Asli Celikyilmaz; Yulia Tsvetkov</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2511.15684v1</t>
+          <t>2511.16660v1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -926,19 +926,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MF-GCN: A Multi-Frequency Graph Convolutional Network for Tri-Modal Depression Detection Using Eye-Tracking, Facial, and Acoustic Features</t>
+          <t>Solving Spatial Supersensing Without Spatial Supersensing</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15675v1</t>
+          <t>http://arxiv.org/abs/2511.16655v1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -946,17 +946,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sejuti Rahman; Swakshar Deb; MD. Sameer Iqbal Chowdhury; MD. Jubair Ahmed Sourov; Mohammad Shamsuddin</t>
+          <t>Vishaal Udandarao; Shyamgopal Karthik; Surabhi S. Nath; Andreas Hochlehnert; Matthias Bethge; Ameya Prabhu</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2511.15675v1</t>
+          <t>2511.16655v1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -971,19 +971,19 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Efficient quantum state preparation of multivariate functions using tensor networks</t>
+          <t>PartUV: Part-Based UV Unwrapping of 3D Meshes</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15674v1</t>
+          <t>http://arxiv.org/abs/2511.16659v1</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -991,17 +991,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Marco Ballarin; Juan José García-Ripoll; David Hayes; Michael Lubasch</t>
+          <t>Zhaoning Wang; Xinyue Wei; Ruoxi Shi; Xiaoshuai Zhang; Hao Su; Minghua Liu</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2511.15674v1</t>
+          <t>2511.16659v1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1016,19 +1016,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Quantum-Guided Test Case Minimization for LLM-Based Code Generation</t>
+          <t>SurvAgent: Hierarchical CoT-Enhanced Case Banking and Dichotomy-Based Multi-Agent System for Multimodal Survival Prediction</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15665v1</t>
+          <t>http://arxiv.org/abs/2511.16635v1</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Huixiang Zhang; Mahzabeen Emu</t>
+          <t>Guolin Huang; Wenting Chen; Jiaqi Yang; Xinheng Lyu; Xiaoling Luo; Sen Yang; Xiaohan Xing; Linlin Shen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2511.15665v1</t>
+          <t>2511.16635v1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1061,19 +1061,19 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VisPlay: Self-Evolving Vision-Language Models from Images</t>
+          <t>Teacher-Guided One-Shot Pruning via Context-Aware Knowledge Distillation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15661v1</t>
+          <t>http://arxiv.org/abs/2511.16653v1</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Yicheng He; Chengsong Huang; Zongxia Li; Jiaxin Huang; Yonghui Yang</t>
+          <t>Md. Samiul Alim; Sharjil Khan; Amrijit Biswas; Fuad Rahman; Shafin Rahman; Nabeel Mohammed</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2511.15661v1</t>
+          <t>2511.16653v1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GEO-Bench-2: From Performance to Capability, Rethinking Evaluation in Geospatial AI</t>
+          <t>TRIM: Scalable 3D Gaussian Diffusion Inference with Temporal and Spatial Trimming</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15658v1</t>
+          <t>http://arxiv.org/abs/2511.16642v1</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Naomi Simumba; Nils Lehmann; Paolo Fraccaro; Hamed Alemohammad; Geeth De Mel; Salman Khan; Manil Maskey; Nicolas Longepe; Xiao Xiang Zhu; Hannah Kerner; Juan Bernabe-Moreno; Alexander Lacoste</t>
+          <t>Zeyuan Yin; Xiaoming Liu</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2511.15658v1</t>
+          <t>2511.16642v1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1151,19 +1151,19 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INQUIRE-Search: A Framework for Interactive Discovery in Large-Scale Biodiversity Databases</t>
+          <t>InternData-A1: Pioneering High-Fidelity Synthetic Data for Pre-training Generalist Policy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15656v1</t>
+          <t>http://arxiv.org/abs/2511.16651v1</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1171,17 +1171,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Edward Vendrow; Julia Chae; Rupa Kurinchi-Vendhan; Isaac Eckert; Jazlynn Hall; Marta Jarzyna; Reymond Miyajima; Ruth Oliver; Laura Pollock; Lauren Schrack; Scott Yanco; Oisin Mac Aodha; Sara Beery</t>
+          <t>Yang Tian; Yuyin Yang; Yiman Xie; Zetao Cai; Xu Shi; Ning Gao; Hangxu Liu; Xuekun Jiang; Zherui Qiu; Feng Yuan; Yaping Li; Ping Wang; Junhao Cai; Jia Zeng; Hao Dong; Jiangmiao Pang</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2511.15656v1</t>
+          <t>2511.16651v1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1196,19 +1196,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MambaIO: Global-Coordinate Inertial Odometry for Pedestrians via Multi-Scale Frequency-Decoupled Modeling</t>
+          <t>Late-decoupled 3D Hierarchical Semantic Segmentation with Semantic Prototype Discrimination based Bi-branch Supervision</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15645v1</t>
+          <t>http://arxiv.org/abs/2511.16650v1</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1216,17 +1216,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Shanshan Zhang</t>
+          <t>Shuyu Cao; Chongshou Li; Jie Xu; Tianrui Li; Na Zhao</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2511.15645v1</t>
+          <t>2511.16650v1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1241,19 +1241,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A Millennium of UK Business Cycles: Insights from Structural VAR Analysis</t>
+          <t>Bridging VLMs and Embodied Intelligence with Deliberate Practice Policy Optimization</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15643v1</t>
+          <t>http://arxiv.org/abs/2511.16602v1</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Leonardo N. Ferreira; Haroon Mumtaz; Gabor Pinter</t>
+          <t>Yi Zhang; Che Liu; Xiancong Ren; Hanchu Ni; Yingji Zhang; Shuai Zhang; Zeyuan Ding; Jiayu Hu; Haozhe Shan; Junbo Qi; Yan Bai; Dengjie Li; Jiachen Luo; Yidong Wang; Yong Dai; Zenglin Xu; Bin Shen; Qifan Wang; Jian Tang; Xiaozhu Ju</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2511.15643v1</t>
+          <t>2511.16602v1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1286,19 +1286,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Navigating Quantum Missteps in Agent-Based Modeling: A Schelling Model Case Study</t>
+          <t>MedBayes-Lite: Bayesian Uncertainty Quantification for Safe Clinical Decision Support</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15642v1</t>
+          <t>http://arxiv.org/abs/2511.16625v1</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1306,17 +1306,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C. Nico Barati; Arie Croitoru; Ross Gore; Michael Jarret; William Kennedy; Andrew Maciejunes; Maxim A. Malikov; Samuel S. Mendelson</t>
+          <t>Elias Hossain; Md Mehedi Hasan Nipu; Maleeha Sheikh; Rajib Rana; Subash Neupane; Niloofar Yousefi</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2511.15642v1</t>
+          <t>2511.16625v1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1331,19 +1331,19 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>The SA-FARI Dataset: Segment Anything in Footage of Animals for Recognition and Identification</t>
+          <t>TFCDiff: Robust ECG Denoising via Time-Frequency Complementary Diffusion</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15622v1</t>
+          <t>http://arxiv.org/abs/2511.16627v1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1351,17 +1351,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dante Francisco Wasmuht; Otto Brookes; Maximillian Schall; Pablo Palencia; Chris Beirne; Tilo Burghardt; Majid Mirmehdi; Hjalmar Kühl; Mimi Arandjelovic; Sam Pottie; Peter Bermant; Brandon Asheim; Yi Jin Toh; Adam Elzinga; Jason Holmberg; Andrew Whitworth; Eleanor Flatt; Laura Gustafson; Chaitanya Ryali; Yuan-Ting Hu; Baishan Guo; Andrew Westbury; Kate Saenko; Didac Suris</t>
+          <t>Pengxin Li; Yimin Zhou; Jie Min; Yirong Wang; Wei Liang; Wang Li</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2511.15622v1</t>
+          <t>2511.16627v1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1376,19 +1376,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hierarchical Semantic Tree Anchoring for CLIP-Based Class-Incremental Learning</t>
+          <t>SAM 3D: 3Dfy Anything in Images</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15633v1</t>
+          <t>http://arxiv.org/abs/2511.16624v1</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tao Hu; Lan Li; Zhen-Hao Xie; Da-Wei Zhou</t>
+          <t>SAM 3D Team; Xingyu Chen; Fu-Jen Chu; Pierre Gleize; Kevin J Liang; Alexander Sax; Hao Tang; Weiyao Wang; Michelle Guo; Thibaut Hardin; Xiang Li; Aohan Lin; Jiawei Liu; Ziqi Ma; Anushka Sagar; Bowen Song; Xiaodong Wang; Jianing Yang; Bowen Zhang; Piotr Dollár; Georgia Gkioxari; Matt Feiszli; Jitendra Malik</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2511.15633v1</t>
+          <t>2511.16624v1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1421,19 +1421,19 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FlashMesh: Faster and Better Autoregressive Mesh Synthesis via Structured Speculation</t>
+          <t>SAM2S: Segment Anything in Surgical Videos via Semantic Long-term Tracking</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15618v1</t>
+          <t>http://arxiv.org/abs/2511.16618v1</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1441,17 +1441,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tingrui Shen; Yiheng Zhang; Chen Tang; Chuan Ping; Zixing Zhao; Le Wan; Yuwang Wang; Ronggang Wang; Shengfeng He</t>
+          <t>Haofeng Liu; Ziyue Wang; Sudhanshu Mishra; Mingqi Gao; Guanyi Qin; Chang Han Low; Alex Y. W. Kong; Yueming Jin</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2511.15618v1</t>
+          <t>2511.16618v1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1466,19 +1466,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Optimus-Q: Utilizing Federated Learning in Adaptive Robots for Intelligent Nuclear Power Plant Operations through Quantum Cryptography</t>
+          <t>Erase to Retain: Low Rank Adaptation Guided Selective Unlearning in Medical Segmentation Networks</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15614v1</t>
+          <t>http://arxiv.org/abs/2511.16574v1</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1486,17 +1486,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sai Puppala; Ismail Hossain; Jahangir Alam; Sajedul Talukder</t>
+          <t>Nirjhor Datta; Md. Golam Rabiul Alam</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2511.15614v1</t>
+          <t>2511.16574v1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1511,19 +1511,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>When to Think and When to Look: Uncertainty-Guided Lookback</t>
+          <t>Probability Weighting Meets Heavy Tails: An Econometric Framework for Behavioral Asset Pricing</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15613v1</t>
+          <t>http://arxiv.org/abs/2511.16563v1</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jing Bi; Filippos Bellos; Junjia Guo; Yayuan Li; Chao Huang; Yunlong; Tang; Luchuan Song; Susan Liang; Zhongfei; Zhang; Jason J. Corso; Chenliang Xu</t>
+          <t>Akash Deep; Svetlozar T. Rachev; Frank J. Fabozzi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2511.15613v1</t>
+          <t>2511.16563v1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1556,19 +1556,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MaskMed: Decoupled Mask and Class Prediction for Medical Image Segmentation</t>
+          <t>TimeViper: A Hybrid Mamba-Transformer Vision-Language Model for Efficient Long Video Understanding</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15603v1</t>
+          <t>http://arxiv.org/abs/2511.16595v1</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bin Xie; Gady Agam</t>
+          <t>Boshen Xu; Zihan Xiao; Jiaze Li; Jianzhong Ju; Zhenbo Luo; Jian Luan; Qin Jin</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2511.15603v1</t>
+          <t>2511.16595v1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1601,19 +1601,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Endomorphism and automorphism graphs of finite groups</t>
+          <t>Green Resilience of Cyber-Physical Systems: Doctoral Dissertation</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15602v1</t>
+          <t>http://arxiv.org/abs/2511.16593v1</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1621,17 +1621,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Midhuna V Ajith; Peter J Cameron; Mainak Ghosh; Aparna Lakshmanan S</t>
+          <t>Diaeddin Rimawi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2511.15602v1</t>
+          <t>2511.16593v1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1646,19 +1646,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EPSO: A Caching-Based Efficient Superoptimizer for BPF Bytecode</t>
+          <t>POMA-3D: The Point Map Way to 3D Scene Understanding</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15589v1</t>
+          <t>http://arxiv.org/abs/2511.16567v1</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1666,17 +1666,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Qian Zhu; Yuxuan Liu; Ziyuan Zhu; Shangqing Liu; Lei Bu</t>
+          <t>Ye Mao; Weixun Luo; Ranran Huang; Junpeng Jing; Krystian Mikolajczyk</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2511.15589v1</t>
+          <t>2511.16567v1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1691,19 +1691,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Learning from Mistakes: Loss-Aware Memory Enhanced Continual Learning for LiDAR Place Recognition</t>
+          <t>NutriScreener: Retrieval-Augmented Multi-Pose Graph Attention Network for Malnourishment Screening</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15597v1</t>
+          <t>http://arxiv.org/abs/2511.16566v1</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Xufei Wang; Junqiao Zhao; Siyue Tao; Qiwen Gu; Wonbong Kim; Tiantian Feng</t>
+          <t>Misaal Khan; Mayank Vatsa; Kuldeep Singh; Richa Singh</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2511.15597v1</t>
+          <t>2511.16566v1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1736,19 +1736,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>US-X Complete: A Multi-Modal Approach to Anatomical 3D Shape Recovery</t>
+          <t>A $(2+\varepsilon)$-approximation algorithm for the general scheduling problem in quasipolynomial time</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15600v1</t>
+          <t>http://arxiv.org/abs/2511.16536v1</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1756,17 +1756,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Miruna-Alexandra Gafencu; Yordanka Velikova; Nassir Navab; Mohammad Farid Azampour</t>
+          <t>Alexander Armbruster; Lars Rohwedder; Andreas Wiese</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2511.15600v1</t>
+          <t>2511.16536v1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1781,19 +1781,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Real-Time Optimal Control via Transformer Networks and Bernstein Polynomials</t>
+          <t>Supervised Contrastive Learning for Few-Shot AI-Generated Image Detection and Attribution</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15588v1</t>
+          <t>http://arxiv.org/abs/2511.16541v1</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1801,17 +1801,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gage MacLin; Venanzio Cichella; Andrew Patterson; Irene Gregory</t>
+          <t>Jaime Álvarez Urueña; David Camacho; Javier Huertas Tato</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2511.15588v1</t>
+          <t>2511.16541v1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1826,19 +1826,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Graph Rewriting Language as a Platform for Quantum Diagrammatic Calculi</t>
+          <t>Progressive Supernet Training for Efficient Visual Autoregressive Modeling</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15581v1</t>
+          <t>http://arxiv.org/abs/2511.16546v1</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1846,17 +1846,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kayo Tei; Haruto Mishina; Naoki Yamamoto; Kazunori Ueda</t>
+          <t>Xiaoyue Chen; Yuling Shi; Kaiyuan Li; Huandong Wang; Yong Li; Xiaodong Gu; Xinlei Chen; Mingbao Lin</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2511.15581v1</t>
+          <t>2511.16546v1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1871,19 +1871,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MHR: Momentum Human Rig</t>
+          <t>Lite Any Stereo: Efficient Zero-Shot Stereo Matching</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15586v1</t>
+          <t>http://arxiv.org/abs/2511.16555v1</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1891,17 +1891,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Aaron Ferguson; Ahmed A. A. Osman; Berta Bescos; Carsten Stoll; Chris Twigg; Christoph Lassner; David Otte; Eric Vignola; Federica Bogo; Igor Santesteban; Javier Romero; Jenna Zarate; Jeongseok Lee; Jinhyung Park; Jinlong Yang; John Doublestein; Kishore Venkateshan; Kris Kitani; Ladislav Kavan; Marco Dal Farra; Matthew Hu; Matthew Cioffi; Michael Fabris; Michael Ranieri; Mohammad Modarres; Petr Kadlecek; Rinat Abdrashitov; Romain Prévost; Roman Rajbhandari; Ronald Mallet; Russel Pearsall; Sandy Kao; Sanjeev Kumar; Scott Parrish; Te-Li Wang; Tony Tung; Yuan Dong; Yuhua Chen; Yuanlu Xu; Yuting Ye; Zhongshi Jiang</t>
+          <t>Junpeng Jing; Weixun Luo; Ye Mao; Krystian Mikolajczyk</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2511.15586v1</t>
+          <t>2511.16555v1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1916,19 +1916,19 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CompTrack: Information Bottleneck-Guided Low-Rank Dynamic Token Compression for Point Cloud Tracking</t>
+          <t>Investigating Optical Flow Computation: From Local Methods to a Multiresolution Horn-Schunck Implementation with Bilinear Interpolation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15580v1</t>
+          <t>http://arxiv.org/abs/2511.16535v1</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1936,17 +1936,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sifan Zhou; Yichao Cao; Jiahao Nie; Yuqian Fu; Ziyu Zhao; Xiaobo Lu; Shuo Wang</t>
+          <t>Haytham Ziani</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2511.15580v1</t>
+          <t>2511.16535v1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1961,19 +1961,19 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A critical review of pre-post surveys designed to measure student epistemology in undergraduate science courses</t>
+          <t>EOGS++: Earth Observation Gaussian Splatting with Internal Camera Refinement and Direct Panchromatic Rendering</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15575v1</t>
+          <t>http://arxiv.org/abs/2511.16542v1</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1981,17 +1981,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Kyriaki Chatzikyriakidou; Kristi L. Hall; Edward F. Redish; Todd J. Cooke</t>
+          <t>Pierrick Bournez; Luca Savant Aira; Thibaud Ehret; Gabriele Facciolo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2511.15575v1</t>
+          <t>2511.16542v1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2006,19 +2006,19 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AVATAAR: Agentic Video Answering via Temporal Adaptive Alignment and Reasoning</t>
+          <t>BoxingVI: A Multi-Modal Benchmark for Boxing Action Recognition and Localization</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15578v1</t>
+          <t>http://arxiv.org/abs/2511.16524v1</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Urjitkumar Patel; Fang-Chun Yeh; Chinmay Gondhalekar</t>
+          <t>Rahul Kumar; Vipul Baghel; Sudhanshu Singh; Bikash Kumar Badatya; Shivam Yadav; Babji Srinivasan; Ravi Hegde</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2511.15578v1</t>
+          <t>2511.16524v1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2051,19 +2051,19 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>From Low-Rank Features to Encoding Mismatch: Rethinking Feature Distillation in Vision Transformers</t>
+          <t>Loss Functions Robust to the Presence of Label Errors</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15572v1</t>
+          <t>http://arxiv.org/abs/2511.16512v1</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2071,17 +2071,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Huiyuan Tian; Bonan Xu; Shijian Li; Xin Jin</t>
+          <t>Nicholas Pellegrino; David Szczecina; Paul Fieguth</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2511.15572v1</t>
+          <t>2511.16512v1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2096,19 +2096,19 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Integrability of Siegel transforms and an application</t>
+          <t>Contrastive vision-language learning with paraphrasing and negation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15568v1</t>
+          <t>http://arxiv.org/abs/2511.16527v1</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2116,17 +2116,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>René Pfitscher</t>
+          <t>Kwun Ho Ngan; Saman Sadeghi Afgeh; Joe Townsend; Artur d'Avila Garcez</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2511.15568v1</t>
+          <t>2511.16527v1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SRPO: Self-Referential Policy Optimization for Vision-Language-Action Models</t>
+          <t>Enhancing Multi-Camera Gymnast Tracking Through Domain Knowledge Integration</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15605v1</t>
+          <t>http://arxiv.org/abs/2511.16532v1</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2161,17 +2161,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Senyu Fei; Siyin Wang; Li Ji; Ao Li; Shiduo Zhang; Liming Liu; Jinlong Hou; Jingjing Gong; Xianzhong Zhao; Xipeng Qiu</t>
+          <t>Fan Yang; Shigeyuki Odashima; Shoichi Masui; Ikuo Kusajima; Sosuke Yamao; Shan Jiang</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2511.15605v1</t>
+          <t>2511.16532v1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Transferable Dual-Domain Feature Importance Attack against AI-Generated Image Detector</t>
+          <t>YOWO: You Only Walk Once to Jointly Map An Indoor Scene and Register Ceiling-mounted Cameras</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15571v1</t>
+          <t>http://arxiv.org/abs/2511.16521v1</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2206,17 +2206,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Weiheng Zhu; Gang Cao; Jing Liu; Lifang Yu; Shaowei Weng</t>
+          <t>Fan Yang; Sosuke Yamao; Ikuo Kusajima; Atsunori Moteki; Shoichi Masui; Shan Jiang</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2511.15571v1</t>
+          <t>2511.16521v1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2231,19 +2231,19 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Multi-Stage Residual-Aware Unsupervised Deep Learning Framework for Consistent Ultrasound Strain Elastography</t>
+          <t>MiMo-Embodied: X-Embodied Foundation Model Technical Report</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://arxiv.org/abs/2511.15640v1</t>
+          <t>http://arxiv.org/abs/2511.16518v1</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2251,17 +2251,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Shourov Joarder; Tushar Talukder Showrav; Md. Kamrul Hasan</t>
+          <t>Xiaoshuai Hao; Lei Zhou; Zhijian Huang; Zhiwen Hou; Yingbo Tang; Lingfeng Zhang; Guang Li; Zheng Lu; Shuhuai Ren; Xianhui Meng; Yuchen Zhang; Jing Wu; Jinghui Lu; Chenxu Dang; Jiayi Guan; Jianhua Wu; Zhiyi Hou; Hanbing Li; Shumeng Xia; Mingliang Zhou; Yinan Zheng; Zihao Yue; Shuhao Gu; Hao Tian; Yuannan Shen; Jianwei Cui; Wen Zhang; Shaoqing Xu; Bing Wang; Haiyang Sun; Zeyu Zhu; Yuncheng Jiang; Zibin Guo; Chuhong Gong; Chaofan Zhang; Wenbo Ding; Kun Ma; Guang Chen; Rui Cai; Diyun Xiang; Heng Qu; Fuli Luo; Hangjun Ye; Long Chen</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2511.15640v1</t>
+          <t>2511.16518v1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-11-21 00:35:45</t>
+          <t>2025-11-22 21:50:21</t>
         </is>
       </c>
     </row>
